--- a/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
+++ b/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20542" windowHeight="10500"/>
+    <workbookView windowWidth="19207" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="ILPD与DAP-SS、DAP-SF通信协议" sheetId="1" r:id="rId1"/>
@@ -3400,8 +3400,8 @@
   </sheetPr>
   <dimension ref="B96:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301:J301"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="A230" sqref="$A230:$XFD230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1"/>
@@ -5919,7 +5919,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="230" ht="46.95" customHeight="1" spans="2:10">
+    <row r="230" ht="39" customHeight="1" spans="2:10">
       <c r="B230" s="43">
         <v>4</v>
       </c>

--- a/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
+++ b/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19207" windowHeight="10320"/>
+    <workbookView windowWidth="22387" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="ILPD与DAP-SS、DAP-SF通信协议" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="363">
   <si>
     <t>操作基本运行动作对接</t>
   </si>
@@ -817,13 +817,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>CF</t>
+    <t>0010</t>
   </si>
   <si>
     <t>DAP-SF收到回复 02 03 40 xxxxxxx  XXXX。 xxxxxxx 内容为品牌名，若全为0则表示没有品牌名，XXXX为CRC校验。</t>
@@ -832,9 +826,6 @@
     <t>ILPD向DAP-SF获取当前使用树脂的树脂名(Materials)</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>DAP-SF收到回复 02 03 40 xxxxxxx  XXXX。 xxxxxxx 内容为树脂名，若全为0则表示没有树脂名，XXXX为CRC校验。</t>
   </si>
   <si>
@@ -883,9 +874,6 @@
     <t>ILPD向DAP-SF获取当前使用的离型膜名称</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>DAP-SF收到回复 02 03 40 xxxxxxx  XXXX。 xxxxxxx 内容为离型膜名称，若全为0则表示没有读到，XXXX为CRC校验。</t>
   </si>
   <si>
@@ -931,25 +919,16 @@
     <t>ILPD控制DAP-SF摄像头电源打开</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>0680</t>
   </si>
   <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>DAP-SF收到回复 02 05 06 80 00 01 0D 59 。DAP-SF打开供电电源。</t>
+    <t>DAP-SF收到回复 02 06 06 80 00 01 xx xx。DAP-SF打开供电电源。</t>
   </si>
   <si>
     <t>ILPD控制DAP-SF摄像头电源关闭</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DAP-SF收到回复 02 05 06 80 00 00 CC 99 。DAP-SF关闭供电电源。</t>
+    <t>DAP-SF收到回复 02 06 06 80 00 00 xx xx。DAP-SF关闭供电电源。</t>
   </si>
   <si>
     <t>允许注液</t>
@@ -958,64 +937,61 @@
     <t>0681</t>
   </si>
   <si>
+    <t>DAP-SF收到回复 02 06 06 81 00 01 xx xx 。DAP-SF若料盒树脂不足则自动注液。</t>
+  </si>
+  <si>
+    <t>禁止注液</t>
+  </si>
+  <si>
+    <t>DAP-SF收到回复 02 06 06 81 00 00 xx xx。DAP-SF关闭自动注液。</t>
+  </si>
+  <si>
+    <t>IO输入检测</t>
+  </si>
+  <si>
+    <t>DAP-SF输入状态</t>
+  </si>
+  <si>
+    <t>0690</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>bit0 : 料盒到位检测     （0=料盒未安装到位；1=料盒已安装到位）</t>
+  </si>
+  <si>
+    <t>bit1 : 料筒到位检测     （0=未放置料瓶；1 = 料瓶已放置 ）</t>
+  </si>
+  <si>
+    <t>bit2：注液满检测    （0=注液未满；1 = 注液已满）</t>
+  </si>
+  <si>
+    <t>bit3 : 注液溢出检测  （0 = 注液溢出（超过最高限位）； 1 = 注液未溢出）</t>
+  </si>
+  <si>
+    <t>bit4 : 余料大于50g      （0 = 余料小于50g；1 = 余料大于50g）</t>
+  </si>
+  <si>
+    <t>bit5 :空悬臂检测（0=悬臂未放下；1 = 悬臂到位）</t>
+  </si>
+  <si>
+    <t>bit6 :料桶RFID状态检测（0=读写正常；1=读写异常）</t>
+  </si>
+  <si>
+    <t>bit7 :料盒RFID状态检测（0=读写正常，1=读写异常）</t>
+  </si>
+  <si>
+    <t>DAP-SF输出状态</t>
+  </si>
+  <si>
+    <t>0691</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
     <t>5C</t>
-  </si>
-  <si>
-    <t>DAP-SF收到回复 02 05 06 81 00 01 5C 99 。DAP-SF若料盒树脂不足则自动注液。</t>
-  </si>
-  <si>
-    <t>禁止注液</t>
-  </si>
-  <si>
-    <t>9D</t>
-  </si>
-  <si>
-    <t>DAP-SF收到回复 02 05 06 81 00 00 9D 59 。DAP-SF关闭自动注液。</t>
-  </si>
-  <si>
-    <t>IO输入检测</t>
-  </si>
-  <si>
-    <t>DAP-SF输入状态</t>
-  </si>
-  <si>
-    <t>0690</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>bit0 : 料盒到位检测     （0=料盒未安装到位；1=料盒已安装到位）</t>
-  </si>
-  <si>
-    <t>bit1 : 料筒到位检测     （0=未放置料瓶；1 = 料瓶已放置 ）</t>
-  </si>
-  <si>
-    <t>bit2：注液满检测    （0=注液未满；1 = 注液已满）</t>
-  </si>
-  <si>
-    <t>bit3 : 注液溢出检测  （0 = 注液溢出（超过最高限位）； 1 = 注液未溢出）</t>
-  </si>
-  <si>
-    <t>bit4 : 余料大于50g      （0 = 余料小于50g；1 = 余料大于50g）</t>
-  </si>
-  <si>
-    <t>bit5 :空悬臂检测（0=悬臂未放下；1 = 悬臂到位）</t>
-  </si>
-  <si>
-    <t>bit6 :料桶RFID状态检测（0=读写正常；1=读写异常）</t>
-  </si>
-  <si>
-    <t>bit7 :料盒RFID状态检测（0=读写正常，1=读写异常）</t>
-  </si>
-  <si>
-    <t>DAP-SF输出状态</t>
-  </si>
-  <si>
-    <t>0691</t>
-  </si>
-  <si>
-    <t>D5</t>
   </si>
   <si>
     <t>bit0 : 摄像头供电检测   （0 = 供电未打开，1 = 供电已打开）</t>
@@ -1136,9 +1112,6 @@
   </si>
   <si>
     <t>06A0</t>
-  </si>
-  <si>
-    <t>0010</t>
   </si>
   <si>
     <t>DAP-SS回复 01 03 20 xxxxxxxxxxxxxx XX XX。xxxxxxxxxxxxxx为版本信息。</t>
@@ -1475,6 +1448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1589,12 +1568,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2504,7 +2477,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2528,16 +2501,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2546,54 +2519,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2628,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2886,6 +2859,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3400,8 +3376,8 @@
   </sheetPr>
   <dimension ref="B96:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A230" sqref="$A230:$XFD230"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1"/>
@@ -4891,7 +4867,7 @@
       <c r="F184" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="G184" s="125" t="s">
+      <c r="G184" s="126" t="s">
         <v>152</v>
       </c>
       <c r="H184" s="43" t="s">
@@ -5176,7 +5152,7 @@
       <c r="F195" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="G195" s="125" t="s">
+      <c r="G195" s="126" t="s">
         <v>191</v>
       </c>
       <c r="H195" s="43" t="s">
@@ -5485,7 +5461,7 @@
       <c r="G210" s="77"/>
       <c r="H210" s="77"/>
       <c r="I210" s="77"/>
-      <c r="J210" s="89"/>
+      <c r="J210" s="90"/>
     </row>
     <row r="211" ht="28" customHeight="1" spans="2:10">
       <c r="B211" s="43" t="s">
@@ -5541,7 +5517,7 @@
       <c r="I212" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="J212" s="90" t="s">
+      <c r="J212" s="91" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5788,7 +5764,7 @@
       <c r="G224" s="84"/>
       <c r="H224" s="84"/>
       <c r="I224" s="84"/>
-      <c r="J224" s="91"/>
+      <c r="J224" s="92"/>
     </row>
     <row r="225" ht="24" customHeight="1" spans="2:10">
       <c r="B225" s="85" t="s">
@@ -5801,7 +5777,7 @@
       <c r="G225" s="78"/>
       <c r="H225" s="78"/>
       <c r="I225" s="78"/>
-      <c r="J225" s="92"/>
+      <c r="J225" s="93"/>
     </row>
     <row r="226" ht="26" customHeight="1" spans="2:10">
       <c r="B226" s="43" t="s">
@@ -5833,7 +5809,7 @@
       </c>
     </row>
     <row r="227" ht="30" customHeight="1" spans="2:10">
-      <c r="B227" s="43">
+      <c r="B227" s="86">
         <v>1</v>
       </c>
       <c r="C227" s="18" t="s">
@@ -5848,25 +5824,25 @@
       <c r="F227" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G227" s="16" t="s">
+      <c r="G227" s="81" t="s">
         <v>258</v>
       </c>
       <c r="H227" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I227" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J227" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="I227" s="16" t="s">
+    </row>
+    <row r="228" ht="30" customHeight="1" spans="2:10">
+      <c r="B228" s="86">
+        <v>2</v>
+      </c>
+      <c r="C228" s="67" t="s">
         <v>260</v>
-      </c>
-      <c r="J227" s="67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="228" ht="30" customHeight="1" spans="2:10">
-      <c r="B228" s="43">
-        <v>2</v>
-      </c>
-      <c r="C228" s="67" t="s">
-        <v>262</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>257</v>
@@ -5877,46 +5853,46 @@
       <c r="F228" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G228" s="16" t="s">
+      <c r="G228" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="H228" s="43">
-        <v>45</v>
-      </c>
-      <c r="I228" s="43" t="s">
-        <v>263</v>
+      <c r="H228" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I228" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="J228" s="67" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" ht="36" customHeight="1" spans="2:10">
       <c r="B229" s="43">
         <v>3</v>
       </c>
-      <c r="C229" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="D229" s="69" t="s">
+      <c r="C229" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="D229" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E229" s="69" t="s">
+      <c r="E229" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F229" s="69" t="s">
+      <c r="F229" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G229" s="69" t="s">
+      <c r="G229" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H229" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="I229" s="70">
+      <c r="H229" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="I229" s="43">
         <v>85</v>
       </c>
-      <c r="J229" s="75" t="s">
-        <v>267</v>
+      <c r="J229" s="67" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="230" ht="39" customHeight="1" spans="2:10">
@@ -5924,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>257</v>
@@ -5942,10 +5918,10 @@
         <v>85</v>
       </c>
       <c r="I230" s="43" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J230" s="67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="231" ht="36" customHeight="1" spans="2:10">
@@ -5953,7 +5929,7 @@
         <v>5</v>
       </c>
       <c r="C231" s="67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>257</v>
@@ -5971,10 +5947,10 @@
         <v>64</v>
       </c>
       <c r="I231" s="43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J231" s="67" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="232" ht="34.95" customHeight="1" spans="2:10">
@@ -5982,7 +5958,7 @@
         <v>6</v>
       </c>
       <c r="C232" s="67" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>257</v>
@@ -6003,7 +5979,7 @@
         <v>62</v>
       </c>
       <c r="J232" s="67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" ht="34.95" customHeight="1" spans="2:10">
@@ -6011,7 +5987,7 @@
         <v>7</v>
       </c>
       <c r="C233" s="67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>257</v>
@@ -6020,7 +5996,7 @@
         <v>15</v>
       </c>
       <c r="F233" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>246</v>
@@ -6032,15 +6008,15 @@
         <v>81</v>
       </c>
       <c r="J233" s="67" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="234" ht="34.95" customHeight="1" spans="2:10">
-      <c r="B234" s="43">
+      <c r="B234" s="86">
         <v>8</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D234" s="16" t="s">
         <v>257</v>
@@ -6051,17 +6027,17 @@
       <c r="F234" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G234" s="16" t="s">
+      <c r="G234" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="H234" s="43">
-        <v>44</v>
+      <c r="H234" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="I234" s="43" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="J234" s="67" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" ht="31" customHeight="1" spans="2:10">
@@ -6069,7 +6045,7 @@
         <v>9</v>
       </c>
       <c r="C235" s="67" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D235" s="16" t="s">
         <v>257</v>
@@ -6078,19 +6054,19 @@
         <v>15</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H235" s="43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I235" s="43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J235" s="67" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" ht="37" customHeight="1" spans="2:10">
@@ -6098,7 +6074,7 @@
         <v>10</v>
       </c>
       <c r="C236" s="67" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D236" s="16" t="s">
         <v>257</v>
@@ -6107,19 +6083,19 @@
         <v>15</v>
       </c>
       <c r="F236" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H236" s="43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I236" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J236" s="67" t="s">
         <v>285</v>
-      </c>
-      <c r="J236" s="67" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="237" ht="31.05" customHeight="1" spans="2:10">
@@ -6127,7 +6103,7 @@
         <v>11</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D237" s="16" t="s">
         <v>257</v>
@@ -6136,165 +6112,165 @@
         <v>23</v>
       </c>
       <c r="F237" s="16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>219</v>
       </c>
       <c r="H237" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I237" s="43" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J237" s="67" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="238" ht="19.05" customHeight="1" spans="2:10">
-      <c r="B238" s="43">
+      <c r="B238" s="86">
         <v>12</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E238" s="16" t="s">
-        <v>296</v>
+      <c r="E238" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H238" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="I238" s="43">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="I238" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="J238" s="67" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="239" ht="19.05" customHeight="1" spans="2:10">
-      <c r="B239" s="43">
+      <c r="B239" s="86">
         <v>13</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E239" s="16" t="s">
-        <v>296</v>
+      <c r="E239" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>173</v>
       </c>
       <c r="H239" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="I239" s="43">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="I239" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="J239" s="67" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" ht="19.05" customHeight="1" spans="2:10">
-      <c r="B240" s="43">
+      <c r="B240" s="86">
         <v>14</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E240" s="16" t="s">
-        <v>296</v>
+      <c r="E240" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H240" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="I240" s="43">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="I240" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="J240" s="67" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="241" ht="19.05" customHeight="1" spans="2:10">
-      <c r="B241" s="43">
+      <c r="B241" s="86">
         <v>15</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E241" s="16" t="s">
-        <v>296</v>
+      <c r="E241" s="81" t="s">
+        <v>146</v>
       </c>
       <c r="F241" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>173</v>
       </c>
       <c r="H241" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I241" s="43">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="I241" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="J241" s="67" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" ht="19.05" customHeight="1" spans="4:10">
-      <c r="D242" s="86"/>
-      <c r="E242" s="86"/>
-      <c r="F242" s="86"/>
-      <c r="G242" s="86"/>
-      <c r="H242" s="87"/>
-      <c r="I242" s="87"/>
-      <c r="J242" s="93"/>
+      <c r="D242" s="87"/>
+      <c r="E242" s="87"/>
+      <c r="F242" s="87"/>
+      <c r="G242" s="87"/>
+      <c r="H242" s="88"/>
+      <c r="I242" s="88"/>
+      <c r="J242" s="94"/>
     </row>
     <row r="243" ht="22.95" customHeight="1" spans="2:10">
-      <c r="B243" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="C243" s="88"/>
-      <c r="D243" s="88"/>
-      <c r="E243" s="88"/>
-      <c r="F243" s="88"/>
-      <c r="G243" s="88"/>
-      <c r="H243" s="88"/>
-      <c r="I243" s="88"/>
-      <c r="J243" s="88"/>
+      <c r="B243" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C243" s="89"/>
+      <c r="D243" s="89"/>
+      <c r="E243" s="89"/>
+      <c r="F243" s="89"/>
+      <c r="G243" s="89"/>
+      <c r="H243" s="89"/>
+      <c r="I243" s="89"/>
+      <c r="J243" s="89"/>
     </row>
     <row r="244" ht="25.05" customHeight="1" spans="2:10">
       <c r="B244" s="43" t="s">
         <v>87</v>
       </c>
       <c r="C244" s="43" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>257</v>
@@ -6303,7 +6279,7 @@
         <v>23</v>
       </c>
       <c r="F244" s="16" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>25</v>
@@ -6312,10 +6288,10 @@
         <v>84</v>
       </c>
       <c r="I244" s="43" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J244" s="39" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="245" ht="27" customHeight="1" spans="2:10">
@@ -6328,7 +6304,7 @@
       <c r="H245" s="43"/>
       <c r="I245" s="43"/>
       <c r="J245" s="39" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" ht="21" customHeight="1" spans="2:10">
@@ -6341,7 +6317,7 @@
       <c r="H246" s="43"/>
       <c r="I246" s="43"/>
       <c r="J246" s="39" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" ht="21" customHeight="1" spans="2:10">
@@ -6354,7 +6330,7 @@
       <c r="H247" s="43"/>
       <c r="I247" s="43"/>
       <c r="J247" s="39" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="248" ht="18" customHeight="1" spans="2:10">
@@ -6367,7 +6343,7 @@
       <c r="H248" s="43"/>
       <c r="I248" s="43"/>
       <c r="J248" s="28" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="249" ht="18" customHeight="1" spans="2:10">
@@ -6380,7 +6356,7 @@
       <c r="H249" s="43"/>
       <c r="I249" s="43"/>
       <c r="J249" s="28" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="2:10">
@@ -6393,7 +6369,7 @@
       <c r="H250" s="43"/>
       <c r="I250" s="43"/>
       <c r="J250" s="28" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="2:10">
@@ -6406,7 +6382,7 @@
       <c r="H251" s="43"/>
       <c r="I251" s="43"/>
       <c r="J251" s="28" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="252" customHeight="1" spans="2:10">
@@ -6529,7 +6505,7 @@
         <v>127</v>
       </c>
       <c r="C261" s="43" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>257</v>
@@ -6538,19 +6514,19 @@
         <v>23</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H261" s="43" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I261" s="43" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="J261" s="39" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="2:10">
@@ -6563,7 +6539,7 @@
       <c r="H262" s="43"/>
       <c r="I262" s="43"/>
       <c r="J262" s="39" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="2:10">
@@ -6576,7 +6552,7 @@
       <c r="H263" s="43"/>
       <c r="I263" s="43"/>
       <c r="J263" s="39" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="264" customHeight="1" spans="2:10">
@@ -6589,7 +6565,7 @@
       <c r="H264" s="43"/>
       <c r="I264" s="43"/>
       <c r="J264" s="39" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="2:10">
@@ -6602,7 +6578,7 @@
       <c r="H265" s="43"/>
       <c r="I265" s="43"/>
       <c r="J265" s="39" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="2:10">
@@ -6774,7 +6750,7 @@
     </row>
     <row r="281" customHeight="1" spans="2:10">
       <c r="B281" s="36" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C281" s="37"/>
       <c r="D281" s="37"/>
@@ -6828,7 +6804,7 @@
         <v>15</v>
       </c>
       <c r="F283" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>17</v>
@@ -6840,7 +6816,7 @@
         <v>81</v>
       </c>
       <c r="J283" s="51" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="284" ht="96.6" customHeight="1" spans="2:10">
@@ -6857,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="F284" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G284" s="19" t="s">
         <v>72</v>
@@ -6869,63 +6845,63 @@
         <v>81</v>
       </c>
       <c r="J284" s="51" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" ht="54" customHeight="1" spans="2:10">
-      <c r="B285" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="C285" s="95"/>
-      <c r="D285" s="95"/>
-      <c r="E285" s="95"/>
-      <c r="F285" s="95"/>
-      <c r="G285" s="95"/>
-      <c r="H285" s="95"/>
-      <c r="I285" s="95"/>
-      <c r="J285" s="117"/>
+      <c r="B285" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="C285" s="96"/>
+      <c r="D285" s="96"/>
+      <c r="E285" s="96"/>
+      <c r="F285" s="96"/>
+      <c r="G285" s="96"/>
+      <c r="H285" s="96"/>
+      <c r="I285" s="96"/>
+      <c r="J285" s="118"/>
     </row>
     <row r="290" ht="25" customHeight="1" spans="2:10">
-      <c r="B290" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="C290" s="97"/>
-      <c r="D290" s="97"/>
-      <c r="E290" s="97"/>
-      <c r="F290" s="97"/>
-      <c r="G290" s="97"/>
-      <c r="H290" s="97"/>
-      <c r="I290" s="97"/>
-      <c r="J290" s="118"/>
+      <c r="B290" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="C290" s="98"/>
+      <c r="D290" s="98"/>
+      <c r="E290" s="98"/>
+      <c r="F290" s="98"/>
+      <c r="G290" s="98"/>
+      <c r="H290" s="98"/>
+      <c r="I290" s="98"/>
+      <c r="J290" s="119"/>
     </row>
     <row r="291" ht="46" customHeight="1" spans="2:10">
-      <c r="B291" s="98" t="s">
-        <v>336</v>
-      </c>
-      <c r="C291" s="99"/>
-      <c r="D291" s="99"/>
-      <c r="E291" s="99"/>
-      <c r="F291" s="99"/>
-      <c r="G291" s="99"/>
-      <c r="H291" s="99"/>
-      <c r="I291" s="99"/>
-      <c r="J291" s="119"/>
+      <c r="B291" s="99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C291" s="100"/>
+      <c r="D291" s="100"/>
+      <c r="E291" s="100"/>
+      <c r="F291" s="100"/>
+      <c r="G291" s="100"/>
+      <c r="H291" s="100"/>
+      <c r="I291" s="100"/>
+      <c r="J291" s="120"/>
     </row>
     <row r="292" ht="26" customHeight="1" spans="2:10">
-      <c r="B292" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="C292" s="101"/>
-      <c r="D292" s="101"/>
-      <c r="E292" s="101"/>
-      <c r="F292" s="101"/>
-      <c r="G292" s="101"/>
-      <c r="H292" s="101"/>
-      <c r="I292" s="101"/>
-      <c r="J292" s="120"/>
+      <c r="B292" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="C292" s="102"/>
+      <c r="D292" s="102"/>
+      <c r="E292" s="102"/>
+      <c r="F292" s="102"/>
+      <c r="G292" s="102"/>
+      <c r="H292" s="102"/>
+      <c r="I292" s="102"/>
+      <c r="J292" s="121"/>
     </row>
     <row r="293" ht="25" customHeight="1" spans="2:10">
-      <c r="B293" s="102" t="s">
+      <c r="B293" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C293" s="43" t="s">
@@ -6943,216 +6919,216 @@
       <c r="G293" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H293" s="103" t="s">
+      <c r="H293" s="104" t="s">
         <v>9</v>
       </c>
       <c r="I293" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J293" s="121" t="s">
+      <c r="J293" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="294" ht="25" customHeight="1" spans="2:10">
-      <c r="B294" s="104" t="s">
+      <c r="B294" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C294" s="105" t="s">
+      <c r="C294" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="D294" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F294" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="G294" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="H294" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I294" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J294" s="110" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="295" ht="25" customHeight="1" spans="2:10">
+      <c r="B295" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C295" s="110" t="s">
+        <v>333</v>
+      </c>
+      <c r="D295" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" s="105">
+        <v>10</v>
+      </c>
+      <c r="F295" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="G295" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I295" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J295" s="110" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="296" ht="25" customHeight="1" spans="2:10">
+      <c r="B296" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C296" s="110" t="s">
+        <v>335</v>
+      </c>
+      <c r="D296" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="105">
+        <v>10</v>
+      </c>
+      <c r="F296" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="G296" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="H296" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I296" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J296" s="110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="297" ht="60" customHeight="1" spans="2:10">
+      <c r="B297" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C297" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="D294" s="106" t="s">
+      <c r="D297" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E294" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F294" s="108" t="s">
+      <c r="E297" s="105">
+        <v>10</v>
+      </c>
+      <c r="F297" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="G294" s="106" t="s">
+      <c r="G297" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="H294" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I294" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J294" s="109" t="s">
+      <c r="H297" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I297" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J297" s="123" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="295" ht="25" customHeight="1" spans="2:10">
-      <c r="B295" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C295" s="109" t="s">
+    <row r="298" ht="25" customHeight="1" spans="2:10">
+      <c r="B298" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C298" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="D295" s="106" t="s">
+      <c r="D298" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E295" s="104">
+      <c r="E298" s="105">
         <v>10</v>
       </c>
-      <c r="F295" s="106" t="s">
+      <c r="F298" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="G295" s="126" t="s">
+      <c r="G298" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H298" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I298" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J298" s="110" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="299" ht="25" customHeight="1" spans="2:10">
+      <c r="B299" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D299" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" s="105">
+        <v>10</v>
+      </c>
+      <c r="F299" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="G299" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H295" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I295" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J295" s="109" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="296" ht="25" customHeight="1" spans="2:10">
-      <c r="B296" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C296" s="109" t="s">
-        <v>344</v>
-      </c>
-      <c r="D296" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E296" s="104">
-        <v>10</v>
-      </c>
-      <c r="F296" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="G296" s="126" t="s">
-        <v>246</v>
-      </c>
-      <c r="H296" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I296" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J296" s="109" t="s">
+      <c r="H299" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I299" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J299" s="110" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="297" ht="60" customHeight="1" spans="2:10">
-      <c r="B297" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C297" s="109" t="s">
+    <row r="300" ht="25" customHeight="1" spans="2:10">
+      <c r="B300" s="110"/>
+      <c r="C300" s="110"/>
+      <c r="D300" s="110"/>
+      <c r="E300" s="110"/>
+      <c r="F300" s="110"/>
+      <c r="G300" s="110"/>
+      <c r="H300" s="110"/>
+      <c r="I300" s="110"/>
+      <c r="J300" s="110"/>
+    </row>
+    <row r="301" ht="25" customHeight="1" spans="2:10">
+      <c r="B301" s="111" t="s">
         <v>347</v>
       </c>
-      <c r="D297" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E297" s="104">
-        <v>10</v>
-      </c>
-      <c r="F297" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="G297" s="104" t="s">
-        <v>349</v>
-      </c>
-      <c r="H297" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I297" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J297" s="122" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="298" ht="25" customHeight="1" spans="2:10">
-      <c r="B298" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C298" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="D298" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E298" s="104">
-        <v>10</v>
-      </c>
-      <c r="F298" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G298" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="H298" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I298" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J298" s="109" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="299" ht="25" customHeight="1" spans="2:10">
-      <c r="B299" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="C299" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="D299" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E299" s="104">
-        <v>10</v>
-      </c>
-      <c r="F299" s="106" t="s">
-        <v>354</v>
-      </c>
-      <c r="G299" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H299" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I299" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J299" s="109" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="300" ht="25" customHeight="1" spans="2:10">
-      <c r="B300" s="109"/>
-      <c r="C300" s="109"/>
-      <c r="D300" s="109"/>
-      <c r="E300" s="109"/>
-      <c r="F300" s="109"/>
-      <c r="G300" s="109"/>
-      <c r="H300" s="109"/>
-      <c r="I300" s="109"/>
-      <c r="J300" s="109"/>
-    </row>
-    <row r="301" ht="25" customHeight="1" spans="2:10">
-      <c r="B301" s="110" t="s">
-        <v>356</v>
-      </c>
-      <c r="C301" s="111"/>
-      <c r="D301" s="111"/>
-      <c r="E301" s="111"/>
-      <c r="F301" s="111"/>
-      <c r="G301" s="111"/>
-      <c r="H301" s="111"/>
-      <c r="I301" s="111"/>
-      <c r="J301" s="123"/>
+      <c r="C301" s="112"/>
+      <c r="D301" s="112"/>
+      <c r="E301" s="112"/>
+      <c r="F301" s="112"/>
+      <c r="G301" s="112"/>
+      <c r="H301" s="112"/>
+      <c r="I301" s="112"/>
+      <c r="J301" s="124"/>
     </row>
     <row r="302" ht="25" customHeight="1" spans="2:10">
-      <c r="B302" s="102" t="s">
+      <c r="B302" s="103" t="s">
         <v>3</v>
       </c>
       <c r="C302" s="43" t="s">
@@ -7170,247 +7146,247 @@
       <c r="G302" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H302" s="103" t="s">
+      <c r="H302" s="104" t="s">
         <v>9</v>
       </c>
       <c r="I302" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J302" s="121" t="s">
+      <c r="J302" s="122" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="303" ht="25" customHeight="1" spans="2:10">
-      <c r="B303" s="104" t="s">
+      <c r="B303" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C303" s="105" t="s">
+      <c r="C303" s="106" t="s">
+        <v>348</v>
+      </c>
+      <c r="D303" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E303" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F303" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="G303" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="H303" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I303" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J303" s="110" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="304" ht="25" customHeight="1" spans="2:10">
+      <c r="B304" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304" s="110" t="s">
+        <v>333</v>
+      </c>
+      <c r="D304" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E304" s="105">
+        <v>10</v>
+      </c>
+      <c r="F304" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="G304" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I304" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J304" s="110" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="305" ht="25" customHeight="1" spans="2:10">
+      <c r="B305" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="D305" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E305" s="105">
+        <v>10</v>
+      </c>
+      <c r="F305" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="G305" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="H305" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I305" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J305" s="110" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="306" ht="48" customHeight="1" spans="2:10">
+      <c r="B306" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C306" s="110" t="s">
+        <v>338</v>
+      </c>
+      <c r="D306" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E306" s="105">
+        <v>10</v>
+      </c>
+      <c r="F306" s="107" t="s">
+        <v>339</v>
+      </c>
+      <c r="G306" s="105" t="s">
+        <v>340</v>
+      </c>
+      <c r="H306" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I306" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J306" s="123" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="307" ht="25" customHeight="1" spans="2:10">
+      <c r="B307" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C307" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="D307" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E307" s="105">
+        <v>10</v>
+      </c>
+      <c r="F307" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="G307" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H307" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I307" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J307" s="110" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="308" ht="25" customHeight="1" spans="2:10">
+      <c r="B308" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C308" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D308" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E308" s="105">
+        <v>10</v>
+      </c>
+      <c r="F308" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="G308" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H308" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I308" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J308" s="110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" ht="25" customHeight="1" spans="2:10">
+      <c r="B309" s="113"/>
+      <c r="C309" s="114"/>
+      <c r="D309" s="115"/>
+      <c r="E309" s="116"/>
+      <c r="F309" s="115"/>
+      <c r="G309" s="116"/>
+      <c r="H309" s="114"/>
+      <c r="I309" s="114"/>
+      <c r="J309" s="125"/>
+    </row>
+    <row r="310" ht="25" customHeight="1" spans="2:10">
+      <c r="B310" s="111" t="s">
+        <v>356</v>
+      </c>
+      <c r="C310" s="112"/>
+      <c r="D310" s="112"/>
+      <c r="E310" s="112"/>
+      <c r="F310" s="112"/>
+      <c r="G310" s="112"/>
+      <c r="H310" s="112"/>
+      <c r="I310" s="112"/>
+      <c r="J310" s="124"/>
+    </row>
+    <row r="311" ht="25" customHeight="1" spans="2:10">
+      <c r="B311" s="113" t="s">
         <v>357</v>
       </c>
-      <c r="D303" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E303" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F303" s="108" t="s">
-        <v>339</v>
-      </c>
-      <c r="G303" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="H303" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I303" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J303" s="109" t="s">
+      <c r="C311" s="117"/>
+      <c r="D311" s="113" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="304" ht="25" customHeight="1" spans="2:10">
-      <c r="B304" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="C304" s="109" t="s">
-        <v>342</v>
-      </c>
-      <c r="D304" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E304" s="104">
-        <v>10</v>
-      </c>
-      <c r="F304" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G304" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H304" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I304" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J304" s="109" t="s">
+      <c r="E311" s="116"/>
+      <c r="F311" s="116"/>
+      <c r="G311" s="116"/>
+      <c r="H311" s="117"/>
+      <c r="I311" s="113" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="305" ht="25" customHeight="1" spans="2:10">
-      <c r="B305" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C305" s="109" t="s">
+      <c r="J311" s="117"/>
+    </row>
+    <row r="312" ht="25" customHeight="1" spans="2:10">
+      <c r="B312" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="D305" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E305" s="104">
-        <v>10</v>
-      </c>
-      <c r="F305" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="G305" s="126" t="s">
-        <v>246</v>
-      </c>
-      <c r="H305" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I305" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J305" s="109" t="s">
+      <c r="C312" s="117"/>
+      <c r="D312" s="113" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="306" ht="48" customHeight="1" spans="2:10">
-      <c r="B306" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C306" s="109" t="s">
-        <v>347</v>
-      </c>
-      <c r="D306" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E306" s="104">
-        <v>10</v>
-      </c>
-      <c r="F306" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="G306" s="104" t="s">
-        <v>349</v>
-      </c>
-      <c r="H306" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I306" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J306" s="122" t="s">
+      <c r="E312" s="116"/>
+      <c r="F312" s="116"/>
+      <c r="G312" s="116"/>
+      <c r="H312" s="117"/>
+      <c r="I312" s="113" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="307" ht="25" customHeight="1" spans="2:10">
-      <c r="B307" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C307" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="D307" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E307" s="104">
-        <v>10</v>
-      </c>
-      <c r="F307" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G307" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="H307" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I307" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J307" s="109" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="308" ht="25" customHeight="1" spans="2:10">
-      <c r="B308" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="C308" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="D308" s="106" t="s">
-        <v>257</v>
-      </c>
-      <c r="E308" s="104">
-        <v>10</v>
-      </c>
-      <c r="F308" s="106" t="s">
-        <v>354</v>
-      </c>
-      <c r="G308" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H308" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I308" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J308" s="109" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="309" ht="25" customHeight="1" spans="2:10">
-      <c r="B309" s="112"/>
-      <c r="C309" s="113"/>
-      <c r="D309" s="114"/>
-      <c r="E309" s="115"/>
-      <c r="F309" s="114"/>
-      <c r="G309" s="115"/>
-      <c r="H309" s="113"/>
-      <c r="I309" s="113"/>
-      <c r="J309" s="124"/>
-    </row>
-    <row r="310" ht="25" customHeight="1" spans="2:10">
-      <c r="B310" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="C310" s="111"/>
-      <c r="D310" s="111"/>
-      <c r="E310" s="111"/>
-      <c r="F310" s="111"/>
-      <c r="G310" s="111"/>
-      <c r="H310" s="111"/>
-      <c r="I310" s="111"/>
-      <c r="J310" s="123"/>
-    </row>
-    <row r="311" ht="25" customHeight="1" spans="2:10">
-      <c r="B311" s="112" t="s">
-        <v>366</v>
-      </c>
-      <c r="C311" s="116"/>
-      <c r="D311" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="E311" s="115"/>
-      <c r="F311" s="115"/>
-      <c r="G311" s="115"/>
-      <c r="H311" s="116"/>
-      <c r="I311" s="112" t="s">
-        <v>368</v>
-      </c>
-      <c r="J311" s="116"/>
-    </row>
-    <row r="312" ht="25" customHeight="1" spans="2:10">
-      <c r="B312" s="112" t="s">
-        <v>369</v>
-      </c>
-      <c r="C312" s="116"/>
-      <c r="D312" s="112" t="s">
-        <v>370</v>
-      </c>
-      <c r="E312" s="115"/>
-      <c r="F312" s="115"/>
-      <c r="G312" s="115"/>
-      <c r="H312" s="116"/>
-      <c r="I312" s="112" t="s">
-        <v>371</v>
-      </c>
-      <c r="J312" s="116"/>
+      <c r="J312" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="69">

--- a/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
+++ b/ILPD与DAP-SS、DAP-SF通讯协议V1.0-20240912.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="366">
   <si>
     <t>操作基本运行动作对接</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>DAP-SF收到后 回复 01 03 14  xxxxxxxx XXXX。 xxxxxxxx内容为设备SN码，如果全为0就是程序内没有写入SN码。（SN码可用于设备绑定）</t>
+  </si>
+  <si>
+    <t>外部设备通过协议向DAP-SF写入SN码</t>
+  </si>
+  <si>
+    <t>000A14xxxxxxxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxx为写入的SN码，20字节(14h)的空间。DAP-SF收到后回复02 10 06 70 00 0A XX XX</t>
   </si>
   <si>
     <t>ILPD控制DAP-SF摄像头电源打开</t>
@@ -3374,10 +3383,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B96:J312"/>
+  <dimension ref="B96:J313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1"/>
@@ -6128,23 +6137,21 @@
       </c>
     </row>
     <row r="238" ht="19.05" customHeight="1" spans="2:10">
-      <c r="B238" s="86">
-        <v>12</v>
-      </c>
+      <c r="B238" s="86"/>
       <c r="C238" s="39" t="s">
         <v>291</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E238" s="81" t="s">
-        <v>146</v>
+      <c r="E238" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F238" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="G238" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="G238" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="H238" s="43" t="s">
         <v>81</v>
@@ -6158,7 +6165,7 @@
     </row>
     <row r="239" ht="19.05" customHeight="1" spans="2:10">
       <c r="B239" s="86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C239" s="39" t="s">
         <v>294</v>
@@ -6170,10 +6177,10 @@
         <v>146</v>
       </c>
       <c r="F239" s="16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="H239" s="43" t="s">
         <v>81</v>
@@ -6182,15 +6189,15 @@
         <v>81</v>
       </c>
       <c r="J239" s="67" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="240" ht="19.05" customHeight="1" spans="2:10">
       <c r="B240" s="86">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>257</v>
@@ -6199,10 +6206,10 @@
         <v>146</v>
       </c>
       <c r="F240" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="H240" s="43" t="s">
         <v>81</v>
@@ -6216,7 +6223,7 @@
     </row>
     <row r="241" ht="19.05" customHeight="1" spans="2:10">
       <c r="B241" s="86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C241" s="39" t="s">
         <v>299</v>
@@ -6228,86 +6235,102 @@
         <v>146</v>
       </c>
       <c r="F241" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G241" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H241" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I241" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J241" s="67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="242" ht="19.05" customHeight="1" spans="2:10">
+      <c r="B242" s="86">
+        <v>15</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="D242" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E242" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F242" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G242" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H241" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I241" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J241" s="67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="242" ht="19.05" customHeight="1" spans="4:10">
-      <c r="D242" s="87"/>
-      <c r="E242" s="87"/>
-      <c r="F242" s="87"/>
-      <c r="G242" s="87"/>
-      <c r="H242" s="88"/>
-      <c r="I242" s="88"/>
-      <c r="J242" s="94"/>
-    </row>
-    <row r="243" ht="22.95" customHeight="1" spans="2:10">
-      <c r="B243" s="89" t="s">
-        <v>301</v>
-      </c>
-      <c r="C243" s="89"/>
-      <c r="D243" s="89"/>
-      <c r="E243" s="89"/>
-      <c r="F243" s="89"/>
-      <c r="G243" s="89"/>
-      <c r="H243" s="89"/>
-      <c r="I243" s="89"/>
-      <c r="J243" s="89"/>
-    </row>
-    <row r="244" ht="25.05" customHeight="1" spans="2:10">
-      <c r="B244" s="43" t="s">
+      <c r="H242" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I242" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J242" s="67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="243" ht="19.05" customHeight="1" spans="4:10">
+      <c r="D243" s="87"/>
+      <c r="E243" s="87"/>
+      <c r="F243" s="87"/>
+      <c r="G243" s="87"/>
+      <c r="H243" s="88"/>
+      <c r="I243" s="88"/>
+      <c r="J243" s="94"/>
+    </row>
+    <row r="244" ht="22.95" customHeight="1" spans="2:10">
+      <c r="B244" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" s="89"/>
+      <c r="D244" s="89"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="89"/>
+      <c r="G244" s="89"/>
+      <c r="H244" s="89"/>
+      <c r="I244" s="89"/>
+      <c r="J244" s="89"/>
+    </row>
+    <row r="245" ht="25.05" customHeight="1" spans="2:10">
+      <c r="B245" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C244" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="D244" s="16" t="s">
+      <c r="C245" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D245" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E245" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F244" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G244" s="16" t="s">
+      <c r="F245" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G245" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H244" s="43">
+      <c r="H245" s="43">
         <v>84</v>
       </c>
-      <c r="I244" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="J244" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="245" ht="27" customHeight="1" spans="2:10">
-      <c r="B245" s="43"/>
-      <c r="C245" s="43"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="43"/>
-      <c r="I245" s="43"/>
+      <c r="I245" s="43" t="s">
+        <v>307</v>
+      </c>
       <c r="J245" s="39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="246" ht="21" customHeight="1" spans="2:10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="246" ht="27" customHeight="1" spans="2:10">
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
       <c r="D246" s="16"/>
@@ -6317,7 +6340,7 @@
       <c r="H246" s="43"/>
       <c r="I246" s="43"/>
       <c r="J246" s="39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="247" ht="21" customHeight="1" spans="2:10">
@@ -6330,10 +6353,10 @@
       <c r="H247" s="43"/>
       <c r="I247" s="43"/>
       <c r="J247" s="39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="248" ht="18" customHeight="1" spans="2:10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248" ht="21" customHeight="1" spans="2:10">
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
       <c r="D248" s="16"/>
@@ -6342,8 +6365,8 @@
       <c r="G248" s="16"/>
       <c r="H248" s="43"/>
       <c r="I248" s="43"/>
-      <c r="J248" s="28" t="s">
-        <v>309</v>
+      <c r="J248" s="39" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="249" ht="18" customHeight="1" spans="2:10">
@@ -6356,10 +6379,10 @@
       <c r="H249" s="43"/>
       <c r="I249" s="43"/>
       <c r="J249" s="28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="250" ht="15.75" customHeight="1" spans="2:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="250" ht="18" customHeight="1" spans="2:10">
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
       <c r="D250" s="16"/>
@@ -6369,7 +6392,7 @@
       <c r="H250" s="43"/>
       <c r="I250" s="43"/>
       <c r="J250" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="2:10">
@@ -6382,10 +6405,10 @@
       <c r="H251" s="43"/>
       <c r="I251" s="43"/>
       <c r="J251" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="252" customHeight="1" spans="2:10">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1" spans="2:10">
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
       <c r="D252" s="16"/>
@@ -6395,7 +6418,7 @@
       <c r="H252" s="43"/>
       <c r="I252" s="43"/>
       <c r="J252" s="28" t="s">
-        <v>119</v>
+        <v>315</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="2:10">
@@ -6408,7 +6431,7 @@
       <c r="H253" s="43"/>
       <c r="I253" s="43"/>
       <c r="J253" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="2:10">
@@ -6421,7 +6444,7 @@
       <c r="H254" s="43"/>
       <c r="I254" s="43"/>
       <c r="J254" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" customHeight="1" spans="2:10">
@@ -6434,7 +6457,7 @@
       <c r="H255" s="43"/>
       <c r="I255" s="43"/>
       <c r="J255" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="2:10">
@@ -6447,7 +6470,7 @@
       <c r="H256" s="43"/>
       <c r="I256" s="43"/>
       <c r="J256" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="2:10">
@@ -6460,7 +6483,7 @@
       <c r="H257" s="43"/>
       <c r="I257" s="43"/>
       <c r="J257" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="2:10">
@@ -6473,7 +6496,7 @@
       <c r="H258" s="43"/>
       <c r="I258" s="43"/>
       <c r="J258" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="2:10">
@@ -6486,63 +6509,63 @@
       <c r="H259" s="43"/>
       <c r="I259" s="43"/>
       <c r="J259" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="2:10">
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="16"/>
+      <c r="E260" s="16"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="43"/>
+      <c r="I260" s="43"/>
+      <c r="J260" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="2:10">
-      <c r="B260" s="39"/>
-      <c r="C260" s="39"/>
-      <c r="D260" s="39"/>
-      <c r="E260" s="39"/>
-      <c r="F260" s="39"/>
-      <c r="G260" s="39"/>
-      <c r="H260" s="39"/>
-      <c r="I260" s="39"/>
-      <c r="J260" s="39"/>
-    </row>
     <row r="261" customHeight="1" spans="2:10">
-      <c r="B261" s="43" t="s">
+      <c r="B261" s="39"/>
+      <c r="C261" s="39"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="39"/>
+      <c r="F261" s="39"/>
+      <c r="G261" s="39"/>
+      <c r="H261" s="39"/>
+      <c r="I261" s="39"/>
+      <c r="J261" s="39"/>
+    </row>
+    <row r="262" customHeight="1" spans="2:10">
+      <c r="B262" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C261" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="D261" s="16" t="s">
+      <c r="C262" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D262" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E262" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F261" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="G261" s="16" t="s">
+      <c r="F262" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G262" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H261" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="I261" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="J261" s="39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" customHeight="1" spans="2:10">
-      <c r="B262" s="43"/>
-      <c r="C262" s="43"/>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="16"/>
-      <c r="H262" s="43"/>
-      <c r="I262" s="43"/>
+      <c r="H262" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="I262" s="43" t="s">
+        <v>319</v>
+      </c>
       <c r="J262" s="39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="263" ht="15.75" customHeight="1" spans="2:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="2:10">
       <c r="B263" s="43"/>
       <c r="C263" s="43"/>
       <c r="D263" s="16"/>
@@ -6552,10 +6575,10 @@
       <c r="H263" s="43"/>
       <c r="I263" s="43"/>
       <c r="J263" s="39" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="264" customHeight="1" spans="2:10">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" customHeight="1" spans="2:10">
       <c r="B264" s="43"/>
       <c r="C264" s="43"/>
       <c r="D264" s="16"/>
@@ -6565,7 +6588,7 @@
       <c r="H264" s="43"/>
       <c r="I264" s="43"/>
       <c r="J264" s="39" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="2:10">
@@ -6578,7 +6601,7 @@
       <c r="H265" s="43"/>
       <c r="I265" s="43"/>
       <c r="J265" s="39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="2:10">
@@ -6590,8 +6613,8 @@
       <c r="G266" s="16"/>
       <c r="H266" s="43"/>
       <c r="I266" s="43"/>
-      <c r="J266" s="28" t="s">
-        <v>116</v>
+      <c r="J266" s="39" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="267" customHeight="1" spans="2:10">
@@ -6604,7 +6627,7 @@
       <c r="H267" s="43"/>
       <c r="I267" s="43"/>
       <c r="J267" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="2:10">
@@ -6617,7 +6640,7 @@
       <c r="H268" s="43"/>
       <c r="I268" s="43"/>
       <c r="J268" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="2:10">
@@ -6630,7 +6653,7 @@
       <c r="H269" s="43"/>
       <c r="I269" s="43"/>
       <c r="J269" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="270" customHeight="1" spans="2:10">
@@ -6643,7 +6666,7 @@
       <c r="H270" s="43"/>
       <c r="I270" s="43"/>
       <c r="J270" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="2:10">
@@ -6656,7 +6679,7 @@
       <c r="H271" s="43"/>
       <c r="I271" s="43"/>
       <c r="J271" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="2:10">
@@ -6669,7 +6692,7 @@
       <c r="H272" s="43"/>
       <c r="I272" s="43"/>
       <c r="J272" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="273" customHeight="1" spans="2:10">
@@ -6682,7 +6705,7 @@
       <c r="H273" s="43"/>
       <c r="I273" s="43"/>
       <c r="J273" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="2:10">
@@ -6695,7 +6718,7 @@
       <c r="H274" s="43"/>
       <c r="I274" s="43"/>
       <c r="J274" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" customHeight="1" spans="2:10">
@@ -6708,7 +6731,7 @@
       <c r="H275" s="43"/>
       <c r="I275" s="43"/>
       <c r="J275" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" customHeight="1" spans="2:10">
@@ -6721,110 +6744,94 @@
       <c r="H276" s="43"/>
       <c r="I276" s="43"/>
       <c r="J276" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="2:10">
+      <c r="B277" s="43"/>
+      <c r="C277" s="43"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="43"/>
+      <c r="I277" s="43"/>
+      <c r="J277" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="2:10">
-      <c r="B279" s="32" t="s">
+    <row r="280" customHeight="1" spans="2:10">
+      <c r="B280" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C279" s="33"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="33"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="33"/>
-      <c r="I279" s="33"/>
-      <c r="J279" s="53"/>
-    </row>
-    <row r="280" customHeight="1" spans="2:10">
-      <c r="B280" s="34"/>
-      <c r="C280" s="35"/>
-      <c r="D280" s="35"/>
-      <c r="E280" s="35"/>
-      <c r="F280" s="35"/>
-      <c r="G280" s="35"/>
-      <c r="H280" s="35"/>
-      <c r="I280" s="35"/>
-      <c r="J280" s="54"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="33"/>
+      <c r="G280" s="33"/>
+      <c r="H280" s="33"/>
+      <c r="I280" s="33"/>
+      <c r="J280" s="53"/>
     </row>
     <row r="281" customHeight="1" spans="2:10">
-      <c r="B281" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="C281" s="37"/>
-      <c r="D281" s="37"/>
-      <c r="E281" s="37"/>
-      <c r="F281" s="37"/>
-      <c r="G281" s="37"/>
-      <c r="H281" s="37"/>
-      <c r="I281" s="37"/>
-      <c r="J281" s="55"/>
-    </row>
-    <row r="282" ht="27.6" customHeight="1" spans="2:10">
-      <c r="B282" s="10" t="s">
+      <c r="B281" s="34"/>
+      <c r="C281" s="35"/>
+      <c r="D281" s="35"/>
+      <c r="E281" s="35"/>
+      <c r="F281" s="35"/>
+      <c r="G281" s="35"/>
+      <c r="H281" s="35"/>
+      <c r="I281" s="35"/>
+      <c r="J281" s="54"/>
+    </row>
+    <row r="282" customHeight="1" spans="2:10">
+      <c r="B282" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C282" s="37"/>
+      <c r="D282" s="37"/>
+      <c r="E282" s="37"/>
+      <c r="F282" s="37"/>
+      <c r="G282" s="37"/>
+      <c r="H282" s="37"/>
+      <c r="I282" s="37"/>
+      <c r="J282" s="55"/>
+    </row>
+    <row r="283" ht="27.6" customHeight="1" spans="2:10">
+      <c r="B283" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C283" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D282" s="12" t="s">
+      <c r="D283" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E282" s="13" t="s">
+      <c r="E283" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F282" s="14" t="s">
+      <c r="F283" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G282" s="15" t="s">
+      <c r="G283" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H282" s="16" t="s">
+      <c r="H283" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I282" s="20" t="s">
+      <c r="I283" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J282" s="49" t="s">
+      <c r="J283" s="49" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="283" ht="96.6" customHeight="1" spans="2:10">
-      <c r="B283" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C283" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D283" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E283" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F283" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G283" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H283" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J283" s="51" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="284" ht="96.6" customHeight="1" spans="2:10">
       <c r="B284" s="38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C284" s="39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D284" s="19" t="s">
         <v>257</v>
@@ -6833,166 +6840,166 @@
         <v>15</v>
       </c>
       <c r="F284" s="19" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G284" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H284" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I284" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J284" s="51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="285" ht="96.6" customHeight="1" spans="2:10">
+      <c r="B285" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C285" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D285" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E285" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G285" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H284" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J284" s="51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="285" ht="54" customHeight="1" spans="2:10">
-      <c r="B285" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="C285" s="96"/>
-      <c r="D285" s="96"/>
-      <c r="E285" s="96"/>
-      <c r="F285" s="96"/>
-      <c r="G285" s="96"/>
-      <c r="H285" s="96"/>
-      <c r="I285" s="96"/>
-      <c r="J285" s="118"/>
-    </row>
-    <row r="290" ht="25" customHeight="1" spans="2:10">
-      <c r="B290" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="C290" s="98"/>
-      <c r="D290" s="98"/>
-      <c r="E290" s="98"/>
-      <c r="F290" s="98"/>
-      <c r="G290" s="98"/>
-      <c r="H290" s="98"/>
-      <c r="I290" s="98"/>
-      <c r="J290" s="119"/>
-    </row>
-    <row r="291" ht="46" customHeight="1" spans="2:10">
-      <c r="B291" s="99" t="s">
+      <c r="H285" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I285" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J285" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C291" s="100"/>
-      <c r="D291" s="100"/>
-      <c r="E291" s="100"/>
-      <c r="F291" s="100"/>
-      <c r="G291" s="100"/>
-      <c r="H291" s="100"/>
-      <c r="I291" s="100"/>
-      <c r="J291" s="120"/>
-    </row>
-    <row r="292" ht="26" customHeight="1" spans="2:10">
-      <c r="B292" s="101" t="s">
+    </row>
+    <row r="286" ht="54" customHeight="1" spans="2:10">
+      <c r="B286" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="C292" s="102"/>
-      <c r="D292" s="102"/>
-      <c r="E292" s="102"/>
-      <c r="F292" s="102"/>
-      <c r="G292" s="102"/>
-      <c r="H292" s="102"/>
-      <c r="I292" s="102"/>
-      <c r="J292" s="121"/>
-    </row>
-    <row r="293" ht="25" customHeight="1" spans="2:10">
-      <c r="B293" s="103" t="s">
+      <c r="C286" s="96"/>
+      <c r="D286" s="96"/>
+      <c r="E286" s="96"/>
+      <c r="F286" s="96"/>
+      <c r="G286" s="96"/>
+      <c r="H286" s="96"/>
+      <c r="I286" s="96"/>
+      <c r="J286" s="118"/>
+    </row>
+    <row r="291" ht="25" customHeight="1" spans="2:10">
+      <c r="B291" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C291" s="98"/>
+      <c r="D291" s="98"/>
+      <c r="E291" s="98"/>
+      <c r="F291" s="98"/>
+      <c r="G291" s="98"/>
+      <c r="H291" s="98"/>
+      <c r="I291" s="98"/>
+      <c r="J291" s="119"/>
+    </row>
+    <row r="292" ht="46" customHeight="1" spans="2:10">
+      <c r="B292" s="99" t="s">
+        <v>331</v>
+      </c>
+      <c r="C292" s="100"/>
+      <c r="D292" s="100"/>
+      <c r="E292" s="100"/>
+      <c r="F292" s="100"/>
+      <c r="G292" s="100"/>
+      <c r="H292" s="100"/>
+      <c r="I292" s="100"/>
+      <c r="J292" s="120"/>
+    </row>
+    <row r="293" ht="26" customHeight="1" spans="2:10">
+      <c r="B293" s="101" t="s">
+        <v>332</v>
+      </c>
+      <c r="C293" s="102"/>
+      <c r="D293" s="102"/>
+      <c r="E293" s="102"/>
+      <c r="F293" s="102"/>
+      <c r="G293" s="102"/>
+      <c r="H293" s="102"/>
+      <c r="I293" s="102"/>
+      <c r="J293" s="121"/>
+    </row>
+    <row r="294" ht="25" customHeight="1" spans="2:10">
+      <c r="B294" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C293" s="43" t="s">
+      <c r="C294" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D293" s="16" t="s">
+      <c r="D294" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E293" s="44" t="s">
+      <c r="E294" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F293" s="45" t="s">
+      <c r="F294" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G293" s="16" t="s">
+      <c r="G294" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H293" s="104" t="s">
+      <c r="H294" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I293" s="16" t="s">
+      <c r="I294" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J293" s="122" t="s">
+      <c r="J294" s="122" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="294" ht="25" customHeight="1" spans="2:10">
-      <c r="B294" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C294" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="D294" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E294" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F294" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="G294" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="H294" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="I294" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="J294" s="110" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="295" ht="25" customHeight="1" spans="2:10">
       <c r="B295" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C295" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="106" t="s">
         <v>333</v>
       </c>
       <c r="D295" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E295" s="105">
-        <v>10</v>
-      </c>
-      <c r="F295" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G295" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H295" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="I295" s="105" t="s">
+      <c r="E295" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F295" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="G295" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="H295" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I295" s="107" t="s">
         <v>81</v>
       </c>
       <c r="J295" s="110" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="296" ht="25" customHeight="1" spans="2:10">
       <c r="B296" s="105" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C296" s="110" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D296" s="107" t="s">
         <v>14</v>
@@ -7001,10 +7008,10 @@
         <v>10</v>
       </c>
       <c r="F296" s="107" t="s">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="G296" s="127" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="H296" s="105" t="s">
         <v>81</v>
@@ -7016,9 +7023,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="297" ht="60" customHeight="1" spans="2:10">
+    <row r="297" ht="25" customHeight="1" spans="2:10">
       <c r="B297" s="105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C297" s="110" t="s">
         <v>338</v>
@@ -7032,25 +7039,25 @@
       <c r="F297" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="G297" s="105" t="s">
+      <c r="G297" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="H297" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I297" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J297" s="110" t="s">
         <v>340</v>
       </c>
-      <c r="H297" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="I297" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="J297" s="123" t="s">
+    </row>
+    <row r="298" ht="60" customHeight="1" spans="2:10">
+      <c r="B298" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C298" s="110" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="298" ht="25" customHeight="1" spans="2:10">
-      <c r="B298" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="C298" s="110" t="s">
-        <v>342</v>
       </c>
       <c r="D298" s="107" t="s">
         <v>14</v>
@@ -7059,10 +7066,10 @@
         <v>10</v>
       </c>
       <c r="F298" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G298" s="127" t="s">
-        <v>72</v>
+        <v>342</v>
+      </c>
+      <c r="G298" s="105" t="s">
+        <v>343</v>
       </c>
       <c r="H298" s="105" t="s">
         <v>81</v>
@@ -7070,16 +7077,16 @@
       <c r="I298" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="J298" s="110" t="s">
-        <v>343</v>
+      <c r="J298" s="123" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="299" ht="25" customHeight="1" spans="2:10">
       <c r="B299" s="105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C299" s="110" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D299" s="107" t="s">
         <v>14</v>
@@ -7088,10 +7095,10 @@
         <v>10</v>
       </c>
       <c r="F299" s="107" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="G299" s="127" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H299" s="105" t="s">
         <v>81</v>
@@ -7104,105 +7111,105 @@
       </c>
     </row>
     <row r="300" ht="25" customHeight="1" spans="2:10">
-      <c r="B300" s="110"/>
-      <c r="C300" s="110"/>
-      <c r="D300" s="110"/>
-      <c r="E300" s="110"/>
-      <c r="F300" s="110"/>
-      <c r="G300" s="110"/>
-      <c r="H300" s="110"/>
-      <c r="I300" s="110"/>
-      <c r="J300" s="110"/>
+      <c r="B300" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C300" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D300" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" s="105">
+        <v>10</v>
+      </c>
+      <c r="F300" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G300" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I300" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J300" s="110" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="301" ht="25" customHeight="1" spans="2:10">
-      <c r="B301" s="111" t="s">
-        <v>347</v>
-      </c>
-      <c r="C301" s="112"/>
-      <c r="D301" s="112"/>
-      <c r="E301" s="112"/>
-      <c r="F301" s="112"/>
-      <c r="G301" s="112"/>
-      <c r="H301" s="112"/>
-      <c r="I301" s="112"/>
-      <c r="J301" s="124"/>
+      <c r="B301" s="110"/>
+      <c r="C301" s="110"/>
+      <c r="D301" s="110"/>
+      <c r="E301" s="110"/>
+      <c r="F301" s="110"/>
+      <c r="G301" s="110"/>
+      <c r="H301" s="110"/>
+      <c r="I301" s="110"/>
+      <c r="J301" s="110"/>
     </row>
     <row r="302" ht="25" customHeight="1" spans="2:10">
-      <c r="B302" s="103" t="s">
+      <c r="B302" s="111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C302" s="112"/>
+      <c r="D302" s="112"/>
+      <c r="E302" s="112"/>
+      <c r="F302" s="112"/>
+      <c r="G302" s="112"/>
+      <c r="H302" s="112"/>
+      <c r="I302" s="112"/>
+      <c r="J302" s="124"/>
+    </row>
+    <row r="303" ht="25" customHeight="1" spans="2:10">
+      <c r="B303" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C302" s="43" t="s">
+      <c r="C303" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D302" s="16" t="s">
+      <c r="D303" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E302" s="44" t="s">
+      <c r="E303" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F302" s="45" t="s">
+      <c r="F303" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G302" s="16" t="s">
+      <c r="G303" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H302" s="104" t="s">
+      <c r="H303" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I302" s="16" t="s">
+      <c r="I303" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J302" s="122" t="s">
+      <c r="J303" s="122" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="303" ht="25" customHeight="1" spans="2:10">
-      <c r="B303" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="D303" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="E303" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F303" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="G303" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="H303" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="I303" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="J303" s="110" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="304" ht="25" customHeight="1" spans="2:10">
       <c r="B304" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C304" s="110" t="s">
-        <v>333</v>
+        <v>12</v>
+      </c>
+      <c r="C304" s="106" t="s">
+        <v>351</v>
       </c>
       <c r="D304" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="E304" s="105">
-        <v>10</v>
-      </c>
-      <c r="F304" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G304" s="127" t="s">
-        <v>17</v>
+      <c r="E304" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F304" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="G304" s="107" t="s">
+        <v>258</v>
       </c>
       <c r="H304" s="107" t="s">
         <v>81</v>
@@ -7211,15 +7218,15 @@
         <v>81</v>
       </c>
       <c r="J304" s="110" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" ht="25" customHeight="1" spans="2:10">
       <c r="B305" s="105" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C305" s="110" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D305" s="107" t="s">
         <v>257</v>
@@ -7228,27 +7235,27 @@
         <v>10</v>
       </c>
       <c r="F305" s="107" t="s">
-        <v>336</v>
+        <v>130</v>
       </c>
       <c r="G305" s="127" t="s">
-        <v>246</v>
-      </c>
-      <c r="H305" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="I305" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H305" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I305" s="107" t="s">
         <v>81</v>
       </c>
       <c r="J305" s="110" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="306" ht="48" customHeight="1" spans="2:10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="306" ht="25" customHeight="1" spans="2:10">
       <c r="B306" s="105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C306" s="110" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D306" s="107" t="s">
         <v>257</v>
@@ -7259,8 +7266,8 @@
       <c r="F306" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="G306" s="105" t="s">
-        <v>340</v>
+      <c r="G306" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="H306" s="105" t="s">
         <v>81</v>
@@ -7268,16 +7275,16 @@
       <c r="I306" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="J306" s="123" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="307" ht="25" customHeight="1" spans="2:10">
+      <c r="J306" s="110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="307" ht="48" customHeight="1" spans="2:10">
       <c r="B307" s="105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C307" s="110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D307" s="107" t="s">
         <v>257</v>
@@ -7286,27 +7293,27 @@
         <v>10</v>
       </c>
       <c r="F307" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G307" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="H307" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="I307" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="J307" s="110" t="s">
-        <v>354</v>
+        <v>342</v>
+      </c>
+      <c r="G307" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="H307" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I307" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="J307" s="123" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="308" ht="25" customHeight="1" spans="2:10">
       <c r="B308" s="105" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C308" s="110" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D308" s="107" t="s">
         <v>257</v>
@@ -7315,61 +7322,73 @@
         <v>10</v>
       </c>
       <c r="F308" s="107" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
       <c r="G308" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H308" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I308" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J308" s="110" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="309" ht="25" customHeight="1" spans="2:10">
+      <c r="B309" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C309" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="D309" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="E309" s="105">
+        <v>10</v>
+      </c>
+      <c r="F309" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="G309" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="H308" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="I308" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="J308" s="110" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="309" ht="25" customHeight="1" spans="2:10">
-      <c r="B309" s="113"/>
-      <c r="C309" s="114"/>
-      <c r="D309" s="115"/>
-      <c r="E309" s="116"/>
-      <c r="F309" s="115"/>
-      <c r="G309" s="116"/>
-      <c r="H309" s="114"/>
-      <c r="I309" s="114"/>
-      <c r="J309" s="125"/>
+      <c r="H309" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I309" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="J309" s="110" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="310" ht="25" customHeight="1" spans="2:10">
-      <c r="B310" s="111" t="s">
-        <v>356</v>
-      </c>
-      <c r="C310" s="112"/>
-      <c r="D310" s="112"/>
-      <c r="E310" s="112"/>
-      <c r="F310" s="112"/>
-      <c r="G310" s="112"/>
-      <c r="H310" s="112"/>
-      <c r="I310" s="112"/>
-      <c r="J310" s="124"/>
+      <c r="B310" s="113"/>
+      <c r="C310" s="114"/>
+      <c r="D310" s="115"/>
+      <c r="E310" s="116"/>
+      <c r="F310" s="115"/>
+      <c r="G310" s="116"/>
+      <c r="H310" s="114"/>
+      <c r="I310" s="114"/>
+      <c r="J310" s="125"/>
     </row>
     <row r="311" ht="25" customHeight="1" spans="2:10">
-      <c r="B311" s="113" t="s">
-        <v>357</v>
-      </c>
-      <c r="C311" s="117"/>
-      <c r="D311" s="113" t="s">
-        <v>358</v>
-      </c>
-      <c r="E311" s="116"/>
-      <c r="F311" s="116"/>
-      <c r="G311" s="116"/>
-      <c r="H311" s="117"/>
-      <c r="I311" s="113" t="s">
+      <c r="B311" s="111" t="s">
         <v>359</v>
       </c>
-      <c r="J311" s="117"/>
+      <c r="C311" s="112"/>
+      <c r="D311" s="112"/>
+      <c r="E311" s="112"/>
+      <c r="F311" s="112"/>
+      <c r="G311" s="112"/>
+      <c r="H311" s="112"/>
+      <c r="I311" s="112"/>
+      <c r="J311" s="124"/>
     </row>
     <row r="312" ht="25" customHeight="1" spans="2:10">
       <c r="B312" s="113" t="s">
@@ -7387,6 +7406,23 @@
         <v>362</v>
       </c>
       <c r="J312" s="117"/>
+    </row>
+    <row r="313" ht="25" customHeight="1" spans="2:10">
+      <c r="B313" s="113" t="s">
+        <v>363</v>
+      </c>
+      <c r="C313" s="117"/>
+      <c r="D313" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="E313" s="116"/>
+      <c r="F313" s="116"/>
+      <c r="G313" s="116"/>
+      <c r="H313" s="117"/>
+      <c r="I313" s="113" t="s">
+        <v>365</v>
+      </c>
+      <c r="J313" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -7402,63 +7438,63 @@
     <mergeCell ref="B210:J210"/>
     <mergeCell ref="B224:J224"/>
     <mergeCell ref="B225:J225"/>
-    <mergeCell ref="B243:J243"/>
-    <mergeCell ref="B281:J281"/>
-    <mergeCell ref="B285:J285"/>
-    <mergeCell ref="B290:J290"/>
+    <mergeCell ref="B244:J244"/>
+    <mergeCell ref="B282:J282"/>
+    <mergeCell ref="B286:J286"/>
     <mergeCell ref="B291:J291"/>
     <mergeCell ref="B292:J292"/>
-    <mergeCell ref="B301:J301"/>
-    <mergeCell ref="B310:J310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:H311"/>
-    <mergeCell ref="I311:J311"/>
+    <mergeCell ref="B293:J293"/>
+    <mergeCell ref="B302:J302"/>
+    <mergeCell ref="B311:J311"/>
     <mergeCell ref="B312:C312"/>
     <mergeCell ref="D312:H312"/>
     <mergeCell ref="I312:J312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="D313:H313"/>
+    <mergeCell ref="I313:J313"/>
     <mergeCell ref="B127:B143"/>
     <mergeCell ref="B144:B160"/>
     <mergeCell ref="B161:B177"/>
-    <mergeCell ref="B244:B259"/>
-    <mergeCell ref="B261:B276"/>
+    <mergeCell ref="B245:B260"/>
+    <mergeCell ref="B262:B277"/>
     <mergeCell ref="C127:C143"/>
     <mergeCell ref="C144:C160"/>
     <mergeCell ref="C161:C177"/>
-    <mergeCell ref="C244:C259"/>
-    <mergeCell ref="C261:C276"/>
+    <mergeCell ref="C245:C260"/>
+    <mergeCell ref="C262:C277"/>
     <mergeCell ref="D127:D143"/>
     <mergeCell ref="D144:D160"/>
     <mergeCell ref="D161:D177"/>
-    <mergeCell ref="D244:D259"/>
-    <mergeCell ref="D261:D276"/>
+    <mergeCell ref="D245:D260"/>
+    <mergeCell ref="D262:D277"/>
     <mergeCell ref="E127:E143"/>
     <mergeCell ref="E144:E160"/>
     <mergeCell ref="E161:E177"/>
-    <mergeCell ref="E244:E259"/>
-    <mergeCell ref="E261:E276"/>
+    <mergeCell ref="E245:E260"/>
+    <mergeCell ref="E262:E277"/>
     <mergeCell ref="F127:F143"/>
     <mergeCell ref="F144:F160"/>
     <mergeCell ref="F161:F177"/>
-    <mergeCell ref="F244:F259"/>
-    <mergeCell ref="F261:F276"/>
+    <mergeCell ref="F245:F260"/>
+    <mergeCell ref="F262:F277"/>
     <mergeCell ref="G127:G143"/>
     <mergeCell ref="G144:G160"/>
     <mergeCell ref="G161:G177"/>
-    <mergeCell ref="G244:G259"/>
-    <mergeCell ref="G261:G276"/>
+    <mergeCell ref="G245:G260"/>
+    <mergeCell ref="G262:G277"/>
     <mergeCell ref="H127:H143"/>
     <mergeCell ref="H144:H160"/>
     <mergeCell ref="H161:H177"/>
-    <mergeCell ref="H244:H259"/>
-    <mergeCell ref="H261:H276"/>
+    <mergeCell ref="H245:H260"/>
+    <mergeCell ref="H262:H277"/>
     <mergeCell ref="I127:I143"/>
     <mergeCell ref="I144:I160"/>
     <mergeCell ref="I161:I177"/>
-    <mergeCell ref="I244:I259"/>
-    <mergeCell ref="I261:I276"/>
+    <mergeCell ref="I245:I260"/>
+    <mergeCell ref="I262:I277"/>
     <mergeCell ref="B116:J117"/>
     <mergeCell ref="B124:J125"/>
-    <mergeCell ref="B279:J280"/>
+    <mergeCell ref="B280:J281"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
